--- a/Transaction Data.xlsx
+++ b/Transaction Data.xlsx
@@ -5060,31 +5060,31 @@
         <v>1484.47479291</v>
       </c>
       <c r="O2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P2">
-        <v>0.4757214193936487</v>
+        <v>0.4813020254273467</v>
       </c>
       <c r="Q2">
-        <v>179.1619567871094</v>
+        <v>178.8284759521484</v>
       </c>
       <c r="R2">
-        <v>0.004604482200240218</v>
+        <v>0.002734574394267088</v>
       </c>
       <c r="S2">
-        <v>0.8211669921875</v>
+        <v>0.4876861572265625</v>
       </c>
       <c r="T2">
-        <v>118.06</v>
+        <v>115.83</v>
       </c>
       <c r="U2">
-        <v>145.28</v>
+        <v>142.25</v>
       </c>
       <c r="V2">
-        <v>0.1089558413335793</v>
+        <v>0.1068978070613967</v>
       </c>
       <c r="W2">
-        <v>1629.759007133122</v>
+        <v>1626.725475884467</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -5125,31 +5125,31 @@
         <v>993.4226200000001</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P3">
-        <v>0.3122505441535358</v>
+        <v>0.3112273586952033</v>
       </c>
       <c r="Q3">
-        <v>4024.448486328125</v>
+        <v>3957.37158203125</v>
       </c>
       <c r="R3">
-        <v>0.001508020987501306</v>
+        <v>-0.01518446691600868</v>
       </c>
       <c r="S3">
-        <v>6.059814453125</v>
+        <v>-61.01708984375</v>
       </c>
       <c r="T3">
-        <v>63.59</v>
+        <v>50.44</v>
       </c>
       <c r="U3">
-        <v>76.31</v>
+        <v>58.48</v>
       </c>
       <c r="V3">
-        <v>0.08769510402330079</v>
+        <v>0.06956032468839898</v>
       </c>
       <c r="W3">
-        <v>1069.7292912837</v>
+        <v>1051.899735373427</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -5190,31 +5190,31 @@
         <v>495.82492</v>
       </c>
       <c r="O4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P4">
-        <v>0.1062801434522752</v>
+        <v>0.1037523764622136</v>
       </c>
       <c r="Q4">
-        <v>5.132930278778076</v>
+        <v>4.943530082702637</v>
       </c>
       <c r="R4">
-        <v>-0.002644842561637405</v>
+        <v>-0.03944628971097317</v>
       </c>
       <c r="S4">
-        <v>-0.01361179351806641</v>
+        <v>-0.2030119895935059</v>
       </c>
       <c r="T4">
-        <v>-93.45999999999999</v>
+        <v>-103.37</v>
       </c>
       <c r="U4">
-        <v>-131.72</v>
+        <v>-145.16</v>
       </c>
       <c r="V4">
-        <v>-0.2582367179124437</v>
+        <v>-0.2856187623647476</v>
       </c>
       <c r="W4">
-        <v>364.1017915306807</v>
+        <v>350.6667852161694</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -5255,31 +5255,31 @@
         <v>496.86064</v>
       </c>
       <c r="O5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P5">
-        <v>0.1057478930005402</v>
+        <v>0.1037182394152365</v>
       </c>
       <c r="Q5">
-        <v>0.5597398281097412</v>
+        <v>0.5416210293769836</v>
       </c>
       <c r="R5">
-        <v>0.004715087134052759</v>
+        <v>-0.02780757702765812</v>
       </c>
       <c r="S5">
-        <v>0.00262683629989624</v>
+        <v>-0.01549196243286133</v>
       </c>
       <c r="T5">
-        <v>-95.56</v>
+        <v>-104.21</v>
       </c>
       <c r="U5">
-        <v>-134.58</v>
+        <v>-146.31</v>
       </c>
       <c r="V5">
-        <v>-0.2634887722239379</v>
+        <v>-0.2873395244187585</v>
       </c>
       <c r="W5">
-        <v>362.2783714944935</v>
+        <v>350.5514073431182</v>
       </c>
     </row>
   </sheetData>
